--- a/pandas_note/data/file_sample.xlsx
+++ b/pandas_note/data/file_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kj\Desktop\myGit\PYTHON101\pandas_note\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC06E5F3-DBF3-450B-B883-03E205A0F898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1E3282-3734-4678-AA9E-D895943C1C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8715" yWindow="1815" windowWidth="20880" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="1815" windowWidth="20880" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020년 01월" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="39">
   <si>
     <t>GS칼텍스_셀프</t>
   </si>
@@ -141,6 +141,10 @@
   </si>
   <si>
     <t>서울 중랑구</t>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -572,13 +576,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1651,13 +1658,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B293CE1C-1EF7-476D-B67D-E072C67A442F}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="A1:M4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1828,13 +1836,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66036706-5DF5-4163-B257-6F85FF56F22E}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
